--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,113 +477,147 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+553291004823</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -562,62 +562,79 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -640,6 +640,23 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>+556298529715</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,156 +477,160 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr"/>
+          <t>+5511952381413</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -636,22 +640,103 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,109 +477,109 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -640,14 +640,14 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,86 +657,103 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5511967859426</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-07-28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,109 +494,109 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -623,31 +623,31 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,14 +657,14 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -674,86 +674,103 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5511967859426</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-07-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -511,266 +511,317 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr"/>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+553291004823</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -647,7 +647,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,14 +657,14 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -691,95 +691,99 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr"/>
+          <t>+5521965489343</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -789,14 +793,14 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -806,22 +810,103 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -881,32 +881,15 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+556298529715</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2024-07-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>+556298529715</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,262 +477,262 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -742,48 +742,48 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -793,31 +793,31 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,69 +827,120 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr"/>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,63 +511,63 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,177 +579,177 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -759,31 +759,31 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -793,129 +793,133 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr"/>
+          <t>+5521965489343</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -925,22 +929,103 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -494,29 +494,29 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,63 +528,63 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,114 +613,114 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,58 +749,58 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,14 +810,14 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -834,24 +834,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,63 +885,63 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -963,69 +963,86 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,63 +528,63 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,114 +613,114 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,58 +749,58 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,14 +810,14 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -834,24 +834,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,63 +885,63 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -963,86 +963,69 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+553291004823</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr"/>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-07-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+556298529715</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>2024-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>+556298529715</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -61,8 +61,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -475,29 +475,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5514997883211</t>
+          <t>+553195267711</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5521985096467</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -509,97 +509,97 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -611,131 +611,131 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -747,75 +747,75 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -832,24 +832,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -883,63 +883,63 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -961,69 +961,86 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/contratoh.xlsx
+++ b/contratoh.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -475,7 +475,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553195267711</t>
+          <t>+553174012843</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -485,456 +485,456 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-12-12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5514997883211</t>
+          <t>+555496738305</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-12-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521985096467</t>
+          <t>+553195267711</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+555180524794</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+5519997335593</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-11-11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+555391771383</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+553173576911</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -944,103 +944,205 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr"/>
+          <t>+555199100909</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
